--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.4_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.4_Student_Answer.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF53E92-80AA-4676-910E-BAD02D26C065}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414BFA3F-1510-424B-929A-197FB2088A0C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,99 +153,6 @@
       <top style="thin">
         <color rgb="FFCAE8FF"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCAE8FF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCAE8FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCAE8FF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCAE8FF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCAE8FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCAE8FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCAE8FF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCAE8FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCAE8FF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCAE8FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCAE8FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCAE8FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCAE8FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCAE8FF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCAE8FF"/>
-      </top>
       <bottom style="thin">
         <color rgb="FFCAE8FF"/>
       </bottom>
@@ -255,93 +162,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,7 +521,7 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,336 +532,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="A3" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8">
         <v>3750</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3">
+      <c r="A4" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9">
         <v>1200</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="D4" s="10"/>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8">
         <v>2550</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3">
+      <c r="A5" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9">
         <v>220</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="D5" s="10"/>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8">
         <v>2330</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3">
+      <c r="A6" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
         <v>175</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="D6" s="10"/>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8">
         <v>2155</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3">
+      <c r="A7" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
         <v>50</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="D7" s="10"/>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8">
         <v>2105</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3">
+      <c r="A8" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
         <v>700</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="D8" s="10"/>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8">
         <v>1405</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>42892</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
         <v>250</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7">
         <v>250</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>42895</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
         <v>450</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5">
+      <c r="D16" s="8"/>
+      <c r="E16" s="7">
         <v>700</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>42906</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8">
         <v>250</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>450</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>42910</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8">
         <v>750</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5">
+      <c r="D18" s="8"/>
+      <c r="E18" s="7">
         <v>1200</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>42915</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
         <v>1600</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="16">
+      <c r="D19" s="8"/>
+      <c r="E19" s="7">
         <v>2800</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="17"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="C25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>42888</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="8">
         <v>150</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="11">
+      <c r="E26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>42894</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4">
+      <c r="B27" s="8"/>
+      <c r="C27" s="10">
         <v>150</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="D27" s="8"/>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>42896</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2">
+      <c r="B28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="8">
         <v>40</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>42903</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2">
+      <c r="B29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8">
         <v>30</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="E29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="8">
         <v>70</v>
       </c>
     </row>
@@ -1017,181 +869,181 @@
       <c r="A30" s="7">
         <v>42907</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="20">
+      <c r="B30" s="8"/>
+      <c r="C30" s="10">
         <v>40</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="D30" s="8"/>
+      <c r="E30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="D31" s="17"/>
-      <c r="F31" s="19"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="C36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+      <c r="A37" s="7">
         <v>42887</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="28">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="10">
         <v>10000</v>
       </c>
-      <c r="E37" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="30">
+      <c r="E37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="8">
         <v>10000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="24"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="14" t="s">
+      <c r="C43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="A44" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="8">
         <v>3750</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3">
+      <c r="A45" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9">
         <v>1200</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="D45" s="10"/>
+      <c r="E45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="8">
         <v>2550</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3">
+      <c r="A46" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9">
         <v>220</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="D46" s="10"/>
+      <c r="E46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="8">
         <v>2330</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3">
+      <c r="A47" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9">
         <v>175</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="D47" s="10"/>
+      <c r="E47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="8">
         <v>2155</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3">
+      <c r="A48" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9">
         <v>50</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="2">
+      <c r="D48" s="10"/>
+      <c r="E48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="8">
         <v>2105</v>
       </c>
     </row>
@@ -1199,66 +1051,66 @@
       <c r="A49" s="7">
         <v>42916</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="3">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9">
         <v>700</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="21">
+      <c r="D49" s="10"/>
+      <c r="E49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="8">
         <v>1405</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="19"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="14" t="s">
+      <c r="C55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3">
+      <c r="A56" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9">
         <v>700</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="5">
+      <c r="D56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="7">
         <v>700</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1266,148 +1118,148 @@
       <c r="A57" s="7">
         <v>42916</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10">
         <v>700</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="7">
         <v>0</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="19"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="14" t="s">
+      <c r="C63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>42891</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="3">
+      <c r="B64" s="8"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="9">
         <v>200</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="4">
+      <c r="E64" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>42892</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="3">
+      <c r="B65" s="8"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="9">
         <v>250</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="4">
+      <c r="E65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="10">
         <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="7">
         <v>42895</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="3">
+      <c r="B66" s="8"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="9">
         <v>450</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="4">
+      <c r="E66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="10">
         <v>900</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <v>42902</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="3">
+      <c r="B67" s="8"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="9">
         <v>500</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="4">
+      <c r="E67" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="10">
         <v>1400</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <v>42910</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="3">
+      <c r="B68" s="8"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="9">
         <v>750</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="4">
+      <c r="E68" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="10">
         <v>2150</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <v>42915</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="3">
+      <c r="B69" s="8"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="9">
         <v>1600</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="4">
+      <c r="E69" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="10">
         <v>3750</v>
       </c>
     </row>
@@ -1415,233 +1267,233 @@
       <c r="A70" s="7">
         <v>42916</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="20">
+      <c r="B70" s="8"/>
+      <c r="C70" s="10">
         <v>3750</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="20">
+      <c r="D70" s="9"/>
+      <c r="E70" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="17"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="14" t="s">
+      <c r="C76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <v>42899</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="4">
+      <c r="B77" s="8"/>
+      <c r="C77" s="10">
         <v>600</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="5">
+      <c r="D77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="7">
         <v>600</v>
       </c>
-      <c r="F77" s="6"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+      <c r="A78" s="7">
         <v>42913</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="4">
+      <c r="B78" s="8"/>
+      <c r="C78" s="10">
         <v>600</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="5">
+      <c r="D78" s="8"/>
+      <c r="E78" s="7">
         <v>1200</v>
       </c>
-      <c r="F78" s="6"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>42916</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="18">
+      <c r="B79" s="8"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="8">
         <v>1200</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="7">
         <v>0</v>
       </c>
-      <c r="F79" s="9"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E80" s="17"/>
-      <c r="F80" s="19"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F85" s="14" t="s">
+      <c r="C85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
+      <c r="A86" s="7">
         <v>42888</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="3">
+      <c r="B86" s="8"/>
+      <c r="C86" s="9">
         <v>150</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="5">
+      <c r="D86" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="7">
         <v>150</v>
       </c>
-      <c r="F86" s="10"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
+      <c r="A87" s="7">
         <v>42896</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="3">
+      <c r="B87" s="8"/>
+      <c r="C87" s="9">
         <v>40</v>
       </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="5">
+      <c r="D87" s="10"/>
+      <c r="E87" s="7">
         <v>190</v>
       </c>
-      <c r="F87" s="6"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
+      <c r="A88" s="7">
         <v>42903</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="3">
+      <c r="B88" s="8"/>
+      <c r="C88" s="9">
         <v>30</v>
       </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="5">
+      <c r="D88" s="10"/>
+      <c r="E88" s="7">
         <v>220</v>
       </c>
-      <c r="F88" s="6"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>42916</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="20">
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="10">
         <v>220</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="7">
         <v>0</v>
       </c>
-      <c r="F89" s="6"/>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F90" s="19"/>
+      <c r="F90" s="2"/>
     </row>
     <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F95" s="14" t="s">
+      <c r="C95" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
+      <c r="A96" s="7">
         <v>42911</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="3">
+      <c r="B96" s="8"/>
+      <c r="C96" s="9">
         <v>175</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="5">
+      <c r="D96" s="10"/>
+      <c r="E96" s="7">
         <v>175</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1649,82 +1501,82 @@
       <c r="A97" s="7">
         <v>42916</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="20">
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="10">
         <v>175</v>
       </c>
-      <c r="E97" s="16">
+      <c r="E97" s="7">
         <v>0</v>
       </c>
-      <c r="F97" s="18" t="s">
+      <c r="F97" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="19"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F103" s="14" t="s">
+      <c r="C103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
+      <c r="A104" s="7">
         <v>42887</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="3">
+      <c r="B104" s="8"/>
+      <c r="C104" s="9">
         <v>50</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="5">
+      <c r="D104" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="7">
         <v>50</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
-        <v>42916</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="4">
+      <c r="A105" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="10">
         <v>50</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="7">
         <v>0</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1732,31 +1584,31 @@
       <c r="A106" s="7">
         <v>42938</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="22">
+      <c r="B106" s="8"/>
+      <c r="C106" s="9">
         <v>20</v>
       </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="16">
+      <c r="D106" s="10"/>
+      <c r="E106" s="7">
         <v>20</v>
       </c>
-      <c r="F106" s="21" t="s">
+      <c r="F106" s="8" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A42:F42"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A75:F75"/>
     <mergeCell ref="A84:F84"/>
     <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A42:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.4_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.4_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70050F88-94D0-4CAA-972B-3081C55A2DD0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366647DF-8022-46CF-98AC-B809F7418E79}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -184,17 +184,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,14 +533,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -567,14 +567,14 @@
         <v>42916</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9">
         <v>3750</v>
       </c>
     </row>
@@ -583,14 +583,14 @@
         <v>42916</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>1200</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="D4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9">
         <v>2550</v>
       </c>
     </row>
@@ -599,14 +599,14 @@
         <v>42916</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>220</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="D5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9">
         <v>2330</v>
       </c>
     </row>
@@ -615,14 +615,14 @@
         <v>42916</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>175</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9">
         <v>2155</v>
       </c>
     </row>
@@ -631,14 +631,14 @@
         <v>42916</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>50</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9">
         <v>2105</v>
       </c>
     </row>
@@ -647,14 +647,14 @@
         <v>42916</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>700</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="D8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9">
         <v>1405</v>
       </c>
     </row>
@@ -666,14 +666,14 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -700,85 +700,85 @@
         <v>42892</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>250</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8">
         <v>250</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>42895</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>450</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9">
+      <c r="D13" s="9"/>
+      <c r="E13" s="8">
         <v>700</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>42906</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
         <v>250</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>450</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>42910</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>750</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9">
+      <c r="D15" s="9"/>
+      <c r="E15" s="8">
         <v>1200</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>42915</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>1600</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9">
+      <c r="D16" s="9"/>
+      <c r="E16" s="8">
         <v>2800</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -805,16 +805,16 @@
         <v>42888</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="C20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="9">
         <v>150</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="E20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="9">
         <v>150</v>
       </c>
     </row>
@@ -823,14 +823,14 @@
         <v>42894</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>150</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="D21" s="9"/>
+      <c r="E21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="9">
         <v>0</v>
       </c>
     </row>
@@ -839,14 +839,14 @@
         <v>42896</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9">
         <v>40</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="9">
         <v>40</v>
       </c>
     </row>
@@ -855,14 +855,14 @@
         <v>42903</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9">
         <v>30</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="9">
         <v>70</v>
       </c>
     </row>
@@ -871,14 +871,14 @@
         <v>42907</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>40</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="D24" s="9"/>
+      <c r="E24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="9">
         <v>30</v>
       </c>
     </row>
@@ -888,14 +888,14 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -922,16 +922,16 @@
         <v>42887</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="C28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="9">
         <v>10000</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="10">
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="9">
         <v>10000</v>
       </c>
     </row>
@@ -939,14 +939,14 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -973,14 +973,14 @@
         <v>42916</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="10">
+      <c r="C32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="9">
         <v>3750</v>
       </c>
     </row>
@@ -989,14 +989,14 @@
         <v>42916</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>1200</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="10">
+      <c r="D33" s="9"/>
+      <c r="E33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="9">
         <v>2550</v>
       </c>
     </row>
@@ -1005,14 +1005,14 @@
         <v>42916</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>220</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="10">
+      <c r="D34" s="9"/>
+      <c r="E34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="9">
         <v>2330</v>
       </c>
     </row>
@@ -1021,14 +1021,14 @@
         <v>42916</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>175</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="10">
+      <c r="D35" s="9"/>
+      <c r="E35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="9">
         <v>2155</v>
       </c>
     </row>
@@ -1037,14 +1037,14 @@
         <v>42916</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>50</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="10">
+      <c r="D36" s="9"/>
+      <c r="E36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="9">
         <v>2105</v>
       </c>
     </row>
@@ -1053,14 +1053,14 @@
         <v>42916</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>700</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="10">
+      <c r="D37" s="9"/>
+      <c r="E37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="9">
         <v>1405</v>
       </c>
     </row>
@@ -1068,14 +1068,14 @@
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -1102,16 +1102,16 @@
         <v>42916</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>700</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="9">
+      <c r="D41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="8">
         <v>700</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1120,14 +1120,14 @@
         <v>42916</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10">
+      <c r="C42" s="8"/>
+      <c r="D42" s="9">
         <v>700</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>0</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -1173,14 +1173,14 @@
         <v>42891</v>
       </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9">
+      <c r="C46" s="9"/>
+      <c r="D46" s="8">
         <v>200</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="10">
+      <c r="E46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="9">
         <v>200</v>
       </c>
     </row>
@@ -1189,14 +1189,14 @@
         <v>42892</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9">
+      <c r="C47" s="9"/>
+      <c r="D47" s="8">
         <v>250</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="10">
+      <c r="E47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="9">
         <v>450</v>
       </c>
     </row>
@@ -1205,14 +1205,14 @@
         <v>42895</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="9">
+      <c r="C48" s="9"/>
+      <c r="D48" s="8">
         <v>450</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="10">
+      <c r="E48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="9">
         <v>900</v>
       </c>
     </row>
@@ -1221,14 +1221,14 @@
         <v>42902</v>
       </c>
       <c r="B49" s="7"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9">
+      <c r="C49" s="9"/>
+      <c r="D49" s="8">
         <v>500</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="10">
+      <c r="E49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="9">
         <v>1400</v>
       </c>
     </row>
@@ -1237,14 +1237,14 @@
         <v>42910</v>
       </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9">
+      <c r="C50" s="9"/>
+      <c r="D50" s="8">
         <v>750</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="10">
+      <c r="E50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="9">
         <v>2150</v>
       </c>
     </row>
@@ -1253,14 +1253,14 @@
         <v>42915</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="9">
+      <c r="C51" s="9"/>
+      <c r="D51" s="8">
         <v>1600</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="10">
+      <c r="E51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="9">
         <v>3750</v>
       </c>
     </row>
@@ -1269,14 +1269,14 @@
         <v>42916</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>3750</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="10">
+      <c r="D52" s="8"/>
+      <c r="E52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1284,14 +1284,14 @@
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -1318,58 +1318,58 @@
         <v>42899</v>
       </c>
       <c r="B56" s="7"/>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>600</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="9">
+      <c r="D56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="8">
         <v>600</v>
       </c>
-      <c r="F56" s="11"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>42913</v>
       </c>
       <c r="B57" s="7"/>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>600</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="9">
+      <c r="D57" s="9"/>
+      <c r="E57" s="8">
         <v>1200</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>42916</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9">
         <v>1200</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>0</v>
       </c>
-      <c r="F58" s="11"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -1396,71 +1396,71 @@
         <v>42888</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>150</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="9">
+      <c r="D62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="8">
         <v>150</v>
       </c>
-      <c r="F62" s="11"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>42896</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>40</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="9">
+      <c r="D63" s="9"/>
+      <c r="E63" s="8">
         <v>190</v>
       </c>
-      <c r="F63" s="11"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>42903</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>30</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="9">
+      <c r="D64" s="9"/>
+      <c r="E64" s="8">
         <v>220</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>42916</v>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10">
+      <c r="C65" s="8"/>
+      <c r="D65" s="9">
         <v>220</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>0</v>
       </c>
-      <c r="F65" s="11"/>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -1487,14 +1487,14 @@
         <v>42911</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>175</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="9">
+      <c r="D69" s="9"/>
+      <c r="E69" s="8">
         <v>175</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1503,14 +1503,14 @@
         <v>42916</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="10">
+      <c r="C70" s="8"/>
+      <c r="D70" s="9">
         <v>175</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>0</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1518,14 +1518,14 @@
       <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -1552,16 +1552,16 @@
         <v>42887</v>
       </c>
       <c r="B74" s="7"/>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>50</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="9">
+      <c r="D74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="8">
         <v>50</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1570,14 +1570,14 @@
         <v>42916</v>
       </c>
       <c r="B75" s="7"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="10">
+      <c r="C75" s="8"/>
+      <c r="D75" s="9">
         <v>50</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>0</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1586,30 +1586,30 @@
         <v>42938</v>
       </c>
       <c r="B76" s="7"/>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>20</v>
       </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="9">
+      <c r="D76" s="9"/>
+      <c r="E76" s="8">
         <v>20</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="9" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.4_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.4_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366647DF-8022-46CF-98AC-B809F7418E79}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F516FE48-D20A-469A-8FF3-B03B53C8336C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -175,9 +175,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -190,11 +187,14 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,140 +521,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="A3" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8">
         <v>3750</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8">
+      <c r="A4" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7">
         <v>1200</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8">
         <v>2550</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8">
+      <c r="A5" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7">
         <v>220</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8">
         <v>2330</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8">
+      <c r="A6" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7">
         <v>175</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8">
         <v>2155</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8">
+      <c r="A7" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7">
         <v>50</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8">
         <v>2105</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8">
+      <c r="A8" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7">
         <v>700</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8">
         <v>1405</v>
       </c>
     </row>
@@ -665,17 +667,17 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
@@ -696,91 +698,91 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>42892</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9">
+      <c r="B12" s="6"/>
+      <c r="C12" s="8">
         <v>250</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7">
         <v>250</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>42895</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9">
+      <c r="B13" s="6"/>
+      <c r="C13" s="8">
         <v>450</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8">
+      <c r="D13" s="8"/>
+      <c r="E13" s="7">
         <v>700</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>42906</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
         <v>250</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>450</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>42910</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9">
+      <c r="B15" s="6"/>
+      <c r="C15" s="8">
         <v>750</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8">
+      <c r="D15" s="8"/>
+      <c r="E15" s="7">
         <v>1200</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>42915</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8">
         <v>1600</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8">
+      <c r="D16" s="8"/>
+      <c r="E16" s="7">
         <v>2800</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -801,84 +803,84 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>42888</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="B20" s="6"/>
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8">
         <v>150</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>42894</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9">
+      <c r="B21" s="6"/>
+      <c r="C21" s="8">
         <v>150</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>42896</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9">
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8">
         <v>40</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>42903</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9">
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8">
         <v>30</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="8">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>42907</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9">
+      <c r="B24" s="6"/>
+      <c r="C24" s="8">
         <v>40</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="D24" s="8"/>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="8">
         <v>30</v>
       </c>
     </row>
@@ -887,17 +889,17 @@
       <c r="D25" s="3"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
@@ -918,37 +920,37 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>42887</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="8">
         <v>10000</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="E28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8">
         <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>1</v>
       </c>
@@ -969,115 +971,115 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="A32" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="8">
         <v>3750</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8">
+      <c r="A33" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7">
         <v>1200</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="9">
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="8">
         <v>2550</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8">
+      <c r="A34" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7">
         <v>220</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="9">
+      <c r="D34" s="8"/>
+      <c r="E34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="8">
         <v>2330</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8">
+      <c r="A35" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7">
         <v>175</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="D35" s="8"/>
+      <c r="E35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="8">
         <v>2155</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8">
+      <c r="A36" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7">
         <v>50</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="9">
+      <c r="D36" s="8"/>
+      <c r="E36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="8">
         <v>2105</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8">
+      <c r="A37" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7">
         <v>700</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="9">
+      <c r="D37" s="8"/>
+      <c r="E37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="8">
         <v>1405</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
@@ -1098,36 +1100,36 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8">
+      <c r="A41" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7">
         <v>700</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="8">
+      <c r="D41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="7">
         <v>700</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9">
+      <c r="A42" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8">
         <v>700</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>0</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1138,17 +1140,17 @@
       <c r="E43" s="3"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>1</v>
       </c>
@@ -1169,131 +1171,131 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>42891</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="8">
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="7">
         <v>200</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="9">
+      <c r="E46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="8">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>42892</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="8">
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="7">
         <v>250</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="9">
+      <c r="E47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="8">
         <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>42895</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="8">
+      <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="7">
         <v>450</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="9">
+      <c r="E48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="8">
         <v>900</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>42902</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="8">
+      <c r="B49" s="6"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="7">
         <v>500</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="9">
+      <c r="E49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="8">
         <v>1400</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>42910</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="8">
+      <c r="B50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7">
         <v>750</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="9">
+      <c r="E50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="8">
         <v>2150</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>42915</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="8">
+      <c r="B51" s="6"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="7">
         <v>1600</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="9">
+      <c r="E51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="8">
         <v>3750</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9">
+      <c r="A52" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="8">
         <v>3750</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="9">
+      <c r="D52" s="7"/>
+      <c r="E52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>1</v>
       </c>
@@ -1314,64 +1316,64 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>42899</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="9">
+      <c r="B56" s="6"/>
+      <c r="C56" s="8">
         <v>600</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="8">
+      <c r="D56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="7">
         <v>600</v>
       </c>
-      <c r="F56" s="10"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>42913</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="9">
+      <c r="B57" s="6"/>
+      <c r="C57" s="8">
         <v>600</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="8">
+      <c r="D57" s="8"/>
+      <c r="E57" s="7">
         <v>1200</v>
       </c>
-      <c r="F57" s="10"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9">
+      <c r="A58" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8">
         <v>1200</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="7">
         <v>0</v>
       </c>
-      <c r="F58" s="10"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>1</v>
       </c>
@@ -1392,77 +1394,77 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>42888</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="8">
+      <c r="B62" s="6"/>
+      <c r="C62" s="7">
         <v>150</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="8">
+      <c r="D62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="7">
         <v>150</v>
       </c>
-      <c r="F62" s="10"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>42896</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8">
+      <c r="B63" s="6"/>
+      <c r="C63" s="7">
         <v>40</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="8">
+      <c r="D63" s="8"/>
+      <c r="E63" s="7">
         <v>190</v>
       </c>
-      <c r="F63" s="10"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>42903</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="8">
+      <c r="B64" s="6"/>
+      <c r="C64" s="7">
         <v>30</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="8">
+      <c r="D64" s="8"/>
+      <c r="E64" s="7">
         <v>220</v>
       </c>
-      <c r="F64" s="10"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="9">
+      <c r="A65" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8">
         <v>220</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="7">
         <v>0</v>
       </c>
-      <c r="F65" s="10"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>1</v>
       </c>
@@ -1483,51 +1485,51 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>42911</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8">
+      <c r="B69" s="6"/>
+      <c r="C69" s="7">
         <v>175</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="8">
+      <c r="D69" s="8"/>
+      <c r="E69" s="7">
         <v>175</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9">
+      <c r="A70" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8">
         <v>175</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="7">
         <v>0</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>1</v>
       </c>
@@ -1548,68 +1550,68 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>42887</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="8">
+      <c r="B74" s="6"/>
+      <c r="C74" s="7">
         <v>50</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="8">
+      <c r="D74" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="7">
         <v>50</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>42916</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="9">
+      <c r="A75" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8">
         <v>50</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="7">
         <v>0</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>42938</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="8">
+      <c r="B76" s="6"/>
+      <c r="C76" s="7">
         <v>20</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="8">
+      <c r="D76" s="8"/>
+      <c r="E76" s="7">
         <v>20</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.4_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.4_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C307A-ED25-4A62-ABBB-55CA2B3555B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C75BC9-E41D-4D6B-B100-EF6FA7277832}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -179,10 +179,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -511,7 +511,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,32 +524,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -703,32 +703,32 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -818,32 +818,32 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -935,32 +935,32 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="C31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -986,32 +986,32 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="C35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1099,32 +1099,32 @@
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="C43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1154,32 +1154,32 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="C47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1283,32 +1283,32 @@
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="C56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1351,32 +1351,32 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="7" t="s">
+      <c r="C61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1428,32 +1428,32 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="7" t="s">
+      <c r="C67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1493,32 +1493,32 @@
       <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="7" t="s">
+      <c r="C72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1542,17 +1542,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A34:F34"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
